--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1570383.494208699</v>
+        <v>1678534.587122993</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12443012.75936921</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10400964.22282857</v>
+        <v>10407007.23341583</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>97.87218245768352</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>191.1740989079561</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -865,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>207.5109203058579</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>215.0160242315272</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +913,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>182.9377227717316</v>
+        <v>206.3760037453425</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -993,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>43.55914724454284</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>10.50474099455452</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
@@ -1114,10 +1116,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1145,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>375.1195677819306</v>
+        <v>266.7331670745509</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1184,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1291,13 +1293,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>183.0172251110635</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>120.4227944315385</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1382,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>172.0260335000785</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>245.8796921214435</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1616,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>172.0260335000785</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>245.8796921214435</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1856,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2050,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>243.1373908222617</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>112.7304175246777</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2248,13 +2250,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>41.02686156550228</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2473,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>208.8137524697157</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2570,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2767,16 +2769,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>245.8796921214428</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>185.404873121236</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>63.1628130171261</v>
+        <v>99.9742741983392</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3184,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>18.70843787977262</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>108.3613954702479</v>
       </c>
     </row>
     <row r="35">
@@ -3323,7 +3325,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3421,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>63.1628130171261</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3469,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>102.1557845699813</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000754</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520987</v>
       </c>
     </row>
     <row r="41">
@@ -3904,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>111.3213230702132</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>108.5813113004299</v>
       </c>
     </row>
     <row r="44">
@@ -4135,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>130.1208074460236</v>
       </c>
       <c r="F46" t="n">
-        <v>44.30292280757602</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4192,13 +4194,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1313.273607737845</v>
+        <v>1990.953909778728</v>
       </c>
       <c r="C2" t="n">
-        <v>944.3110907974333</v>
+        <v>1621.991392838317</v>
       </c>
       <c r="D2" t="n">
-        <v>944.3110907974333</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E2" t="n">
-        <v>944.3110907974333</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078258</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
         <v>51.2467865680031</v>
@@ -4355,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2463.478538038858</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V2" t="n">
-        <v>2463.478538038858</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="W2" t="n">
-        <v>2463.478538038858</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="X2" t="n">
-        <v>2090.012779777779</v>
+        <v>1990.953909778728</v>
       </c>
       <c r="Y2" t="n">
-        <v>1699.873447801967</v>
+        <v>1990.953909778728</v>
       </c>
     </row>
     <row r="3">
@@ -4416,13 +4418,13 @@
         <v>932.4978103100998</v>
       </c>
       <c r="M3" t="n">
-        <v>1456.147065963532</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560477</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>2015.115393042427</v>
       </c>
       <c r="P3" t="n">
         <v>2422.685363568936</v>
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>940.7932119894607</v>
+        <v>788.8276219385415</v>
       </c>
       <c r="C4" t="n">
-        <v>771.8570290615538</v>
+        <v>619.8914390106346</v>
       </c>
       <c r="D4" t="n">
-        <v>621.7403896492181</v>
+        <v>619.8914390106346</v>
       </c>
       <c r="E4" t="n">
-        <v>473.8272960668249</v>
+        <v>471.9783454282415</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H4" t="n">
         <v>157.1019332386097</v>
@@ -4513,25 +4515,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1230.210382026421</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1230.210382026421</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W4" t="n">
-        <v>940.7932119894607</v>
+        <v>1419.258216810329</v>
       </c>
       <c r="X4" t="n">
-        <v>940.7932119894607</v>
+        <v>1191.268665912311</v>
       </c>
       <c r="Y4" t="n">
-        <v>940.7932119894607</v>
+        <v>970.4760867687812</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1990.953909778728</v>
+        <v>1975.598450347025</v>
       </c>
       <c r="C5" t="n">
-        <v>1621.991392838317</v>
+        <v>1606.635933406614</v>
       </c>
       <c r="D5" t="n">
-        <v>1263.725694231566</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="E5" t="n">
-        <v>877.9374416333219</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F5" t="n">
-        <v>466.9515368437143</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
         <v>51.2467865680031</v>
@@ -4568,10 +4570,10 @@
         <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923561</v>
@@ -4592,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2377.55374984285</v>
+        <v>2229.179511082845</v>
       </c>
       <c r="U5" t="n">
-        <v>2377.55374984285</v>
+        <v>1975.598450347025</v>
       </c>
       <c r="V5" t="n">
-        <v>2377.55374984285</v>
+        <v>1975.598450347025</v>
       </c>
       <c r="W5" t="n">
-        <v>2377.55374984285</v>
+        <v>1975.598450347025</v>
       </c>
       <c r="X5" t="n">
-        <v>2377.55374984285</v>
+        <v>1975.598450347025</v>
       </c>
       <c r="Y5" t="n">
-        <v>2377.55374984285</v>
+        <v>1975.598450347025</v>
       </c>
     </row>
     <row r="6">
@@ -4638,34 +4640,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I6" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380226</v>
+        <v>482.9033490193021</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>777.6069060507739</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1140.868925009994</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1528.154053606939</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>1860.224488783101</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4699,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>167.7127827280588</v>
+        <v>666.0018823909471</v>
       </c>
       <c r="C7" t="n">
-        <v>167.7127827280588</v>
+        <v>666.0018823909471</v>
       </c>
       <c r="D7" t="n">
-        <v>157.1019332386098</v>
+        <v>515.8852429786114</v>
       </c>
       <c r="E7" t="n">
-        <v>157.1019332386098</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="F7" t="n">
-        <v>157.1019332386098</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4747,28 +4749,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1114.255484944676</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U7" t="n">
-        <v>1114.255484944676</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="V7" t="n">
-        <v>859.5709967387892</v>
+        <v>1158.783151063346</v>
       </c>
       <c r="W7" t="n">
-        <v>570.1538267018286</v>
+        <v>1158.783151063346</v>
       </c>
       <c r="X7" t="n">
-        <v>570.1538267018286</v>
+        <v>930.7936001653286</v>
       </c>
       <c r="Y7" t="n">
-        <v>349.3612475582985</v>
+        <v>710.0010210217985</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1969.42314369238</v>
+        <v>1844.676600992462</v>
       </c>
       <c r="C8" t="n">
-        <v>1600.460626751968</v>
+        <v>1475.714084052051</v>
       </c>
       <c r="D8" t="n">
-        <v>1242.194928145218</v>
+        <v>1117.4483854453</v>
       </c>
       <c r="E8" t="n">
-        <v>856.4066755469735</v>
+        <v>731.660132847056</v>
       </c>
       <c r="F8" t="n">
-        <v>445.4207707573659</v>
+        <v>320.6742280574485</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993393</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>3119.628073993393</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W8" t="n">
-        <v>3119.628073993393</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="X8" t="n">
-        <v>2746.162315732313</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="Y8" t="n">
-        <v>2356.022983756502</v>
+        <v>2231.276441056584</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1590.463386300791</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>1922.533821476953</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>533.4780323548191</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="C10" t="n">
-        <v>364.5418494269122</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="D10" t="n">
-        <v>214.4252100145765</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1742.428664137924</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1742.428664137924</v>
+        <v>1514.806933780014</v>
       </c>
       <c r="U10" t="n">
-        <v>1453.325797263567</v>
+        <v>1225.688596283851</v>
       </c>
       <c r="V10" t="n">
-        <v>1453.325797263567</v>
+        <v>1225.688596283851</v>
       </c>
       <c r="W10" t="n">
-        <v>1163.908627226606</v>
+        <v>936.2714262468908</v>
       </c>
       <c r="X10" t="n">
-        <v>935.919076328589</v>
+        <v>708.2818753488734</v>
       </c>
       <c r="Y10" t="n">
-        <v>715.1264971850588</v>
+        <v>487.4892962053433</v>
       </c>
     </row>
     <row r="11">
@@ -5021,13 +5023,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,19 +5038,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5121,19 +5123,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>251.562654109227</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>746.8882603249857</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951538</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,67 +5175,67 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="W13" t="n">
         <v>1729.097755135313</v>
@@ -5252,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5270,58 +5272,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>1859.536823237711</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5428,49 +5430,49 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="W16" t="n">
         <v>1729.097755135313</v>
@@ -5489,46 +5491,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5540,25 +5542,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C18" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D18" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>2383.002557118213</v>
       </c>
       <c r="K18" t="n">
-        <v>448.1846595309963</v>
+        <v>2716.927329289434</v>
       </c>
       <c r="L18" t="n">
-        <v>943.510265746755</v>
+        <v>3212.252935505192</v>
       </c>
       <c r="M18" t="n">
-        <v>1540.888753373307</v>
+        <v>3809.631423131744</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373307</v>
+        <v>4267.210002903525</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>4267.210002903525</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T18" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U18" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V18" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W18" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y18" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263526</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5698,22 +5700,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X19" t="n">
-        <v>1394.184733704551</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
         <v>1280.315625093766</v>
@@ -5732,28 +5734,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5765,7 +5767,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5829,25 +5831,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>840.8417932021785</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>1468.439756756785</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2020.349486996072</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2443.97263649114</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2338.476105524075</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>2049.400878868273</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1794.716390662386</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1505.299220625425</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1277.309669727408</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5975,10 +5977,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,25 +6068,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>779.6143379232838</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>779.6143379232838</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
         <v>779.6143379232838</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X25" t="n">
-        <v>1000.406917066814</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y25" t="n">
-        <v>779.6143379232838</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6315,16 +6317,16 @@
         <v>1336.167399417937</v>
       </c>
       <c r="N27" t="n">
-        <v>1963.765362972544</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>2515.675093211831</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2515.675093211831</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6415,13 +6417,13 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="X28" t="n">
         <v>1501.108204237296</v>
@@ -6452,31 +6454,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6497,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6540,28 +6542,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>840.8417932021785</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>1468.439756756785</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>2020.349486996072</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2443.97263649114</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>695.5020655703109</v>
+        <v>2757.723669558405</v>
       </c>
       <c r="C31" t="n">
-        <v>695.5020655703109</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="D31" t="n">
-        <v>695.5020655703109</v>
+        <v>2438.670847218162</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>2939.372134388645</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6792,13 +6794,13 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>806.8386896933887</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="D34" t="n">
-        <v>194.8007783998286</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E34" t="n">
-        <v>194.8007783998286</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>175.9033664000583</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
         <v>175.9033664000583</v>
@@ -6901,7 +6903,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>806.8386896933887</v>
       </c>
     </row>
     <row r="35">
@@ -6926,28 +6928,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,28 +7016,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>840.8417932021785</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N36" t="n">
-        <v>1468.439756756785</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O36" t="n">
-        <v>2020.349486996072</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2443.97263649114</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>695.5020655703109</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C37" t="n">
-        <v>695.5020655703109</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>695.5020655703109</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
         <v>631.7012443408906</v>
@@ -7117,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7166,16 +7168,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7193,31 +7195,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>3342.537229081858</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>3173.601046153951</v>
       </c>
       <c r="D40" t="n">
-        <v>241.729756630365</v>
+        <v>3023.484406741615</v>
       </c>
       <c r="E40" t="n">
-        <v>93.81666304797187</v>
+        <v>2875.571313159222</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>2728.681365661312</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>2561.485266376192</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.77343521839</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296627</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822166</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998106</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729141</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389149</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098134</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671693</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>4517.069482196496</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>4262.384993990609</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>3972.967823953649</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>3744.978273055632</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>3524.185693912098</v>
       </c>
     </row>
     <row r="41">
@@ -7400,19 +7402,19 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>2231.588527385791</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>2257.062161108198</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>2854.44064873475</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>3482.038612289356</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>4033.948342528643</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P42" t="n">
-        <v>4457.571492023711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>916.3099000622261</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C43" t="n">
-        <v>747.3737171343192</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D43" t="n">
-        <v>597.2570777219835</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832663</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>2090.842153176861</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V43" t="n">
-        <v>1836.157664970974</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W43" t="n">
-        <v>1546.740494934013</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X43" t="n">
-        <v>1318.750944035996</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y43" t="n">
-        <v>1097.958364892466</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="44">
@@ -7637,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,19 +7724,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>996.5276398439756</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>827.5914569160688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D46" t="n">
-        <v>677.474817503733</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E46" t="n">
-        <v>529.5617239213399</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1398.968683817745</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>1178.176104674215</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8064,16 +8066,16 @@
         <v>342.9044714621885</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>162.0073097921331</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8292,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878349</v>
+        <v>186.4490126143846</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8526,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -8541,19 +8543,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>45.44676101130824</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23461,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891656</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>40.6433062151475</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23698,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891656</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>40.6433062151475</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23938,25 +23940,25 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>9.000252501566337</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>105.8542358274171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24136,13 +24138,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>120.3791545843333</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>176.378588761786</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24361,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>16.89590291932146</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24655,16 +24657,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>40.64330621514819</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>40.30478226780113</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>83.27114962944307</v>
+        <v>46.45968844822997</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25072,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>126.7126101431586</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>110.2232578818469</v>
       </c>
     </row>
     <row r="35">
@@ -25309,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>83.27114962944307</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25552,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>46.45968844823102</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>114.1584408891688</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25792,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>35.11263957635599</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>110.0033420516649</v>
       </c>
     </row>
     <row r="44">
@@ -26023,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>16.31315520054554</v>
       </c>
       <c r="F46" t="n">
-        <v>101.1181252153552</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26080,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>909855.3304658474</v>
+        <v>916391.4507170253</v>
       </c>
     </row>
     <row r="5">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>894570.6432741424</v>
+        <v>894570.6432741423</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>894570.6432741423</v>
+        <v>894570.6432741424</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>894570.6432741423</v>
+        <v>894570.6432741424</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>894570.6432741424</v>
+        <v>894570.6432741423</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26316,46 @@
         <v>533677.1504117841</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117842</v>
       </c>
       <c r="E2" t="n">
+        <v>524645.2897985037</v>
+      </c>
+      <c r="F2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="G2" t="n">
         <v>524645.289798504</v>
-      </c>
-      <c r="F2" t="n">
-        <v>524645.289798504</v>
-      </c>
-      <c r="G2" t="n">
-        <v>524645.2897985039</v>
       </c>
       <c r="H2" t="n">
         <v>524645.2897985041</v>
       </c>
       <c r="I2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="J2" t="n">
         <v>524645.2897985041</v>
       </c>
       <c r="K2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.289798504</v>
       </c>
       <c r="L2" t="n">
-        <v>524645.2897985042</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="M2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="N2" t="n">
         <v>524645.2897985039</v>
-      </c>
-      <c r="N2" t="n">
-        <v>524645.2897985041</v>
       </c>
       <c r="O2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="P2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403379</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>507485.4416245461</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819077</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26418,43 +26420,43 @@
         <v>133113.8635467443</v>
       </c>
       <c r="C4" t="n">
+        <v>133113.8635467443</v>
+      </c>
+      <c r="D4" t="n">
         <v>133113.8635467444</v>
       </c>
-      <c r="D4" t="n">
-        <v>86694.40323307093</v>
-      </c>
       <c r="E4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
+        <v>7507.368461719731</v>
+      </c>
+      <c r="K4" t="n">
         <v>7507.368461719667</v>
       </c>
-      <c r="K4" t="n">
-        <v>7507.368461719668</v>
-      </c>
       <c r="L4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="N4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="P4" t="n">
         <v>7507.368461719668</v>
@@ -26473,7 +26475,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-807126.2691507249</v>
+        <v>-807126.2691507246</v>
       </c>
       <c r="C6" t="n">
-        <v>307625.5144251952</v>
+        <v>307625.5144251951</v>
       </c>
       <c r="D6" t="n">
-        <v>146421.666176982</v>
+        <v>307625.5144251954</v>
       </c>
       <c r="E6" t="n">
-        <v>90602.92970552204</v>
+        <v>-91470.05011166912</v>
       </c>
       <c r="F6" t="n">
-        <v>416015.3915128772</v>
+        <v>416015.3915128771</v>
       </c>
       <c r="G6" t="n">
-        <v>416015.3915128771</v>
+        <v>416015.3915128774</v>
       </c>
       <c r="H6" t="n">
         <v>416015.3915128773</v>
       </c>
       <c r="I6" t="n">
+        <v>416015.3915128771</v>
+      </c>
+      <c r="J6" t="n">
+        <v>248410.2137028948</v>
+      </c>
+      <c r="K6" t="n">
         <v>416015.3915128772</v>
       </c>
-      <c r="J6" t="n">
-        <v>248410.2137028947</v>
-      </c>
-      <c r="K6" t="n">
-        <v>416015.3915128773</v>
-      </c>
       <c r="L6" t="n">
-        <v>367721.4215046866</v>
+        <v>416015.3915128771</v>
       </c>
       <c r="M6" t="n">
-        <v>330960.3635773653</v>
+        <v>283408.0977839505</v>
       </c>
       <c r="N6" t="n">
-        <v>416015.3915128773</v>
+        <v>416015.3915128771</v>
       </c>
       <c r="O6" t="n">
         <v>416015.3915128772</v>
       </c>
       <c r="P6" t="n">
-        <v>416015.3915128772</v>
+        <v>416015.391512877</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26740,10 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,13 +26795,13 @@
         <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26963,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757591</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>433.9106082241349</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27015,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.816623302254</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27397,7 +27399,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>153.1730676707785</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27442,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>178.5570017705129</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27585,25 +27587,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>78.71623381534269</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>71.50697410506382</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>23.72046220850211</v>
+        <v>0.2821812348912829</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27771,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>136.2728329373945</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>138.1107320236578</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27834,10 +27836,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27865,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>35.80215787152281</v>
+        <v>144.8145356984031</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>6.751800220378357</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>100.3259015656734</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -29290,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -30220,7 +30222,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30447,7 +30449,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>-3.959144123655279e-12</v>
       </c>
     </row>
     <row r="41">
@@ -31276,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
@@ -31291,16 +31293,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190645</v>
@@ -31312,7 +31314,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31361,7 +31363,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31373,16 +31375,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31440,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31467,7 +31469,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
@@ -31476,7 +31478,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>146.0225991093089</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>320.9147064709964</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,13 +32311,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>344.6306853939244</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32324,10 +32326,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>593.5422977113952</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32336,7 +32338,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,19 +32551,19 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>530.5785304507792</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32570,7 +32572,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>213.1625787491746</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32786,28 +32788,28 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>279.2419622547062</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33035,19 +33037,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>139.5228722182831</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>140.7358547888808</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,31 +33262,31 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>491.597732526532</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>213.1625787491746</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33512,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>363.5371514786841</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33521,7 +33523,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,13 +33736,13 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,16 +33751,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>188.4731159523455</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>250.1723312270667</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,7 +33973,7 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33983,19 +33985,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>354.9153144485699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,16 +34207,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338203</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34225,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>581.3243739860829</v>
+        <v>244.0266243181827</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34784,7 +34786,7 @@
         <v>640.5848321000387</v>
       </c>
       <c r="M3" t="n">
-        <v>528.9386420741737</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
         <v>391.197099592874</v>
@@ -34793,7 +34795,7 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>411.6868389156654</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308546</v>
@@ -34936,19 +34938,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
         <v>308.745693963795</v>
@@ -34957,7 +34959,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313197</v>
+        <v>373.0365088578695</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
@@ -35106,13 +35108,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>295.1262901348405</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35491,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>8.181160134949948</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>189.5729943876631</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35905,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>206.7892464195654</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35972,10 +35974,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>462.2005856280619</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -35984,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36197,19 +36199,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36218,7 +36220,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>73.18080466315305</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36610,7 +36612,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924728</v>
@@ -36683,19 +36685,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>8.181160134949776</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.7540807028592577</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>349.0014880820875</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>73.18080466315305</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37078,7 +37080,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
         <v>696.488651224316</v>
@@ -37160,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>220.9409070342396</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37169,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37382,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,16 +37399,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>110.1905571410452</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37631,19 +37633,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37801,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394616</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37873,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>439.1903400640646</v>
+        <v>101.8925903961643</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1678534.587122993</v>
+        <v>1674397.429872842</v>
       </c>
     </row>
     <row r="7">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>197.6995498140976</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>191.1740989079561</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>215.0160242315272</v>
+        <v>171.1971464172144</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>263.6022328424115</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,19 +949,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.3760037453425</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.55914724454284</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1074,7 +1074,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>64.57009008111739</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>266.7331670745509</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>355.3191588012451</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1293,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>9.122075265478212</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>120.4227944315385</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,13 +1584,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>160.6789846282037</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>245.8796921214435</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,13 +1821,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>245.8796921214435</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>243.1373908222617</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>19.91555826189057</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2478,10 +2478,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>24.83266606353065</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>105.6507867899569</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2775,10 +2775,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>247.6310136071098</v>
       </c>
       <c r="X28" t="n">
-        <v>185.404873121236</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2958,16 +2958,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>99.9742741983392</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3009,10 +3009,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>206.485192343033</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>108.3613954702479</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>41.33703994143007</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>172.0260335000754</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520987</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>108.5813113004299</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4137,19 +4137,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>130.1208074460236</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1990.953909778728</v>
+        <v>728.3028554854573</v>
       </c>
       <c r="C2" t="n">
-        <v>1621.991392838317</v>
+        <v>728.3028554854573</v>
       </c>
       <c r="D2" t="n">
-        <v>1263.725694231566</v>
+        <v>728.3028554854573</v>
       </c>
       <c r="E2" t="n">
-        <v>877.9374416333219</v>
+        <v>728.3028554854573</v>
       </c>
       <c r="F2" t="n">
-        <v>466.9515368437143</v>
+        <v>317.3169506958497</v>
       </c>
       <c r="G2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2184.059060190805</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>2184.059060190805</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W2" t="n">
-        <v>2184.059060190805</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X2" t="n">
-        <v>1990.953909778728</v>
+        <v>1505.042027525391</v>
       </c>
       <c r="Y2" t="n">
-        <v>1990.953909778728</v>
+        <v>1114.902695549579</v>
       </c>
     </row>
     <row r="3">
@@ -4397,40 +4397,40 @@
         <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>168.0008189145204</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>614.5430248380231</v>
       </c>
       <c r="L3" t="n">
-        <v>932.4978103100998</v>
+        <v>909.2465818694948</v>
       </c>
       <c r="M3" t="n">
-        <v>1295.75982926932</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N3" t="n">
-        <v>1683.044957866265</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>2015.115393042427</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>788.8276219385415</v>
+        <v>1758.982323005929</v>
       </c>
       <c r="C4" t="n">
-        <v>619.8914390106346</v>
+        <v>1590.046140078022</v>
       </c>
       <c r="D4" t="n">
-        <v>619.8914390106346</v>
+        <v>1439.929500665687</v>
       </c>
       <c r="E4" t="n">
-        <v>471.9783454282415</v>
+        <v>1292.016407083293</v>
       </c>
       <c r="F4" t="n">
-        <v>325.0883979303312</v>
+        <v>1145.126459585383</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386097</v>
+        <v>977.1399948936618</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>977.1399948936618</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>977.1399948936618</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>1002.609167878781</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>1449.530858294982</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W4" t="n">
-        <v>1419.258216810329</v>
+        <v>2389.412917877717</v>
       </c>
       <c r="X4" t="n">
-        <v>1191.268665912311</v>
+        <v>2161.423366979699</v>
       </c>
       <c r="Y4" t="n">
-        <v>970.4760867687812</v>
+        <v>1940.630787836169</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1975.598450347025</v>
+        <v>740.1619192519192</v>
       </c>
       <c r="C5" t="n">
-        <v>1606.635933406614</v>
+        <v>740.1619192519192</v>
       </c>
       <c r="D5" t="n">
-        <v>1248.370234799863</v>
+        <v>740.1619192519192</v>
       </c>
       <c r="E5" t="n">
-        <v>1248.370234799863</v>
+        <v>740.1619192519192</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>329.1760144623117</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>317.5116682270046</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362819</v>
@@ -4573,10 +4573,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872916</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4597,22 +4597,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2229.179511082845</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.598450347025</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V5" t="n">
-        <v>1975.598450347025</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="W5" t="n">
-        <v>1975.598450347025</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="X5" t="n">
-        <v>1975.598450347025</v>
+        <v>1126.761759316041</v>
       </c>
       <c r="Y5" t="n">
-        <v>1975.598450347025</v>
+        <v>1126.761759316041</v>
       </c>
     </row>
     <row r="6">
@@ -4640,34 +4640,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>482.9033490193021</v>
+        <v>614.5430248380219</v>
       </c>
       <c r="L6" t="n">
-        <v>777.6069060507739</v>
+        <v>909.2465818694938</v>
       </c>
       <c r="M6" t="n">
-        <v>1140.868925009994</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1528.154053606939</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
-        <v>1860.224488783101</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>666.0018823909471</v>
+        <v>940.7932119894607</v>
       </c>
       <c r="C7" t="n">
-        <v>666.0018823909471</v>
+        <v>771.8570290615538</v>
       </c>
       <c r="D7" t="n">
-        <v>515.8852429786114</v>
+        <v>621.7403896492181</v>
       </c>
       <c r="E7" t="n">
-        <v>367.9721493962183</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="F7" t="n">
-        <v>367.9721493962183</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020476</v>
@@ -4734,7 +4734,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4746,31 +4746,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1571.223806861248</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1571.223806861248</v>
       </c>
       <c r="T7" t="n">
-        <v>1413.467639269233</v>
+        <v>1571.223806861248</v>
       </c>
       <c r="U7" t="n">
-        <v>1413.467639269233</v>
+        <v>1571.223806861248</v>
       </c>
       <c r="V7" t="n">
-        <v>1158.783151063346</v>
+        <v>1571.223806861248</v>
       </c>
       <c r="W7" t="n">
-        <v>1158.783151063346</v>
+        <v>1571.223806861248</v>
       </c>
       <c r="X7" t="n">
-        <v>930.7936001653286</v>
+        <v>1343.23425596323</v>
       </c>
       <c r="Y7" t="n">
-        <v>710.0010210217985</v>
+        <v>1122.4416768197</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1844.676600992462</v>
+        <v>1228.647807131574</v>
       </c>
       <c r="C8" t="n">
-        <v>1475.714084052051</v>
+        <v>859.685290191162</v>
       </c>
       <c r="D8" t="n">
-        <v>1117.4483854453</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E8" t="n">
-        <v>731.660132847056</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F8" t="n">
-        <v>320.6742280574485</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4837,19 +4837,19 @@
         <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056584</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W8" t="n">
-        <v>2231.276441056584</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="X8" t="n">
-        <v>2231.276441056584</v>
+        <v>1618.787139107385</v>
       </c>
       <c r="Y8" t="n">
-        <v>2231.276441056584</v>
+        <v>1228.647807131574</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625329</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
-        <v>956.284402521753</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1590.463386300791</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>1922.533821476953</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710445</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>305.8408313751036</v>
+        <v>842.3033321201476</v>
       </c>
       <c r="C10" t="n">
-        <v>305.8408313751036</v>
+        <v>673.3671491922407</v>
       </c>
       <c r="D10" t="n">
-        <v>305.8408313751036</v>
+        <v>523.250509779905</v>
       </c>
       <c r="E10" t="n">
-        <v>305.8408313751036</v>
+        <v>375.3374161975119</v>
       </c>
       <c r="F10" t="n">
-        <v>305.8408313751036</v>
+        <v>228.4474686996015</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>60.46100400788009</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T10" t="n">
-        <v>1514.806933780014</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="U10" t="n">
-        <v>1225.688596283851</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="V10" t="n">
-        <v>1225.688596283851</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="W10" t="n">
-        <v>936.2714262468908</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="X10" t="n">
-        <v>708.2818753488734</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="Y10" t="n">
-        <v>487.4892962053433</v>
+        <v>1023.951796950387</v>
       </c>
     </row>
     <row r="11">
@@ -5035,22 +5035,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5068,7 +5068,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>95.584050252739</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239595</v>
       </c>
       <c r="L12" t="n">
-        <v>542.9134462654469</v>
+        <v>924.8344286397181</v>
       </c>
       <c r="M12" t="n">
-        <v>1140.291933891999</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N12" t="n">
-        <v>1767.889897446606</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510509</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V13" t="n">
-        <v>1977.461080510509</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="14">
@@ -5272,46 +5272,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972544</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O15" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1977.461080510509</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5503,31 +5503,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>2716.927329289434</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>3212.252935505192</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>3809.631423131744</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>4267.210002903525</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>4267.210002903525</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2264.108249235165</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5761,10 +5761,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>261.8464821474262</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>113.9333885650331</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>113.9333885650331</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>113.9333885650331</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5977,22 +5977,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2379.917379832663</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>2273.199413378161</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W28" t="n">
-        <v>1688.385853854706</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="29">
@@ -6454,13 +6454,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>923.0670414349511</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1550.665004989558</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2757.723669558405</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C31" t="n">
-        <v>2588.787486630498</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D31" t="n">
-        <v>2438.670847218162</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E31" t="n">
-        <v>2337.686731866304</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F31" t="n">
-        <v>2337.686731866304</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>2337.686731866304</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3677.571434467152</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W31" t="n">
-        <v>3388.154264430192</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X31" t="n">
-        <v>3160.164713532175</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y31" t="n">
-        <v>2939.372134388645</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>806.8386896933887</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C34" t="n">
-        <v>637.9025067654818</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D34" t="n">
-        <v>637.9025067654818</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y34" t="n">
-        <v>806.8386896933887</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7165,61 +7165,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3342.537229081858</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C40" t="n">
-        <v>3173.601046153951</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D40" t="n">
-        <v>3023.484406741615</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>2875.571313159222</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>2728.681365661312</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376192</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.77343521839</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>4690.833152398593</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>4517.069482196496</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>4262.384993990609</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>3972.967823953649</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>3744.978273055632</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>3524.185693912098</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,25 +7408,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7639,19 +7639,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7733,22 +7733,22 @@
         <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>579.1554649516144</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8536007400717</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>513.8536007400717</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7839,19 +7839,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>54.95314511566572</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621885</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>162.0073097921331</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>186.4490126143846</v>
+        <v>193.3273467878341</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8543,19 +8543,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>45.44676101130824</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,13 +23472,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>40.6433062151475</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,13 +23709,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>40.6433062151475</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>9.000252501566337</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>120.3791545843333</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>123.7828069546817</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24663,10 +24663,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>38.89198472948121</v>
       </c>
       <c r="X28" t="n">
-        <v>40.30478226780113</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24846,16 +24846,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>46.45968844822997</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24897,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>80.03780599355795</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>110.2232578818469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>107.2784330767823</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>114.1584408891688</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>110.0033420516649</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,19 +26025,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>16.31315520054554</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>894570.6432741424</v>
+        <v>894570.6432741423</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>894570.6432741424</v>
+        <v>894570.6432741423</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>894570.6432741424</v>
+        <v>894570.6432741423</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>894570.6432741424</v>
+        <v>894570.6432741423</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>894570.6432741423</v>
+        <v>894570.6432741424</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>894570.6432741424</v>
+        <v>894570.6432741423</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>894570.6432741424</v>
+        <v>894570.6432741423</v>
       </c>
     </row>
     <row r="16">
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117842</v>
       </c>
       <c r="E2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.2897985036</v>
       </c>
       <c r="F2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="G2" t="n">
+        <v>524645.2897985041</v>
+      </c>
+      <c r="H2" t="n">
         <v>524645.289798504</v>
       </c>
-      <c r="H2" t="n">
-        <v>524645.2897985041</v>
-      </c>
       <c r="I2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="J2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.289798504</v>
       </c>
       <c r="K2" t="n">
         <v>524645.289798504</v>
@@ -26349,10 +26349,10 @@
         <v>524645.289798504</v>
       </c>
       <c r="N2" t="n">
+        <v>524645.2897985037</v>
+      </c>
+      <c r="O2" t="n">
         <v>524645.2897985039</v>
-      </c>
-      <c r="O2" t="n">
-        <v>524645.289798504</v>
       </c>
       <c r="P2" t="n">
         <v>524645.2897985039</v>
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.10570385408937e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245461</v>
+        <v>507485.4416245456</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,16 +26398,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26423,7 +26423,7 @@
         <v>133113.8635467443</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
         <v>7507.368461719667</v>
@@ -26441,7 +26441,7 @@
         <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719731</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
         <v>7507.368461719667</v>
@@ -26456,10 +26456,10 @@
         <v>7507.368461719667</v>
       </c>
       <c r="O4" t="n">
+        <v>7507.368461719634</v>
+      </c>
+      <c r="P4" t="n">
         <v>7507.368461719667</v>
-      </c>
-      <c r="P4" t="n">
-        <v>7507.368461719668</v>
       </c>
     </row>
     <row r="5">
@@ -26472,7 +26472,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-807126.2691507246</v>
+        <v>-807126.2691507243</v>
       </c>
       <c r="C6" t="n">
-        <v>307625.5144251951</v>
+        <v>307625.5144251949</v>
       </c>
       <c r="D6" t="n">
         <v>307625.5144251954</v>
       </c>
       <c r="E6" t="n">
-        <v>-91470.05011166912</v>
+        <v>-91817.42936602562</v>
       </c>
       <c r="F6" t="n">
-        <v>416015.3915128771</v>
+        <v>415668.01225852</v>
       </c>
       <c r="G6" t="n">
-        <v>416015.3915128774</v>
+        <v>415668.0122585203</v>
       </c>
       <c r="H6" t="n">
-        <v>416015.3915128773</v>
+        <v>415668.0122585202</v>
       </c>
       <c r="I6" t="n">
-        <v>416015.3915128771</v>
+        <v>415668.0122585202</v>
       </c>
       <c r="J6" t="n">
-        <v>248410.2137028948</v>
+        <v>248062.8344485377</v>
       </c>
       <c r="K6" t="n">
-        <v>416015.3915128772</v>
+        <v>415668.0122585202</v>
       </c>
       <c r="L6" t="n">
-        <v>416015.3915128771</v>
+        <v>415668.0122585201</v>
       </c>
       <c r="M6" t="n">
-        <v>283408.0977839505</v>
+        <v>283060.7185295936</v>
       </c>
       <c r="N6" t="n">
-        <v>416015.3915128771</v>
+        <v>415668.0122585199</v>
       </c>
       <c r="O6" t="n">
-        <v>416015.3915128772</v>
+        <v>415668.0122585201</v>
       </c>
       <c r="P6" t="n">
-        <v>416015.391512877</v>
+        <v>415668.0122585201</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241349</v>
+        <v>433.9106082241343</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26995,13 +26995,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,32 +27011,32 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>532.1234559996093</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>640.5848321000387</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>532.1234559996096</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>640.5848321000385</v>
-      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>213.8481529588564</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>178.5570017705129</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27542,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>71.50697410506382</v>
+        <v>115.3258519193766</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>37.41631971999391</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0.2821812348912829</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>136.2728329373945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>36.98748233845622</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>144.8145356984031</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
@@ -27909,7 +27909,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>14.41194187722391</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.1294338896506</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>100.3259015656734</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28073,10 +28073,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29292,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -30222,7 +30222,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30449,7 +30449,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>-3.959144123655279e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31284,28 +31284,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L5" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O5" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
         <v>405.5015080147052</v>
@@ -31320,7 +31320,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,7 +31357,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
         <v>19.40387634380021</v>
@@ -31369,10 +31369,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040589</v>
@@ -31381,7 +31381,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378626</v>
@@ -31393,10 +31393,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U6" t="n">
         <v>0.1321789941675764</v>
@@ -31442,19 +31442,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067959</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31518,43 +31518,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,7 +31609,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31618,25 +31618,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31709,13 +31709,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>441.0292693655512</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>615.1181176946649</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>549.9198891312103</v>
       </c>
       <c r="P15" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32323,16 +32323,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N18" t="n">
-        <v>593.5422977113952</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32548,10 +32548,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32560,22 +32560,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>530.5785304507792</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32706,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32794,22 +32794,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>279.2419622547062</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33022,13 +33022,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33037,16 +33037,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>139.5228722182831</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33259,10 +33259,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33271,19 +33271,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>491.597732526532</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33733,13 +33733,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33751,16 +33751,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>188.4731159523455</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>616.9033572954396</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>361.7519118779092</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34234,16 +34234,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34453,25 +34453,25 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>244.0266243181827</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>117.9333660065831</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>640.5848321000387</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>411.6868389156654</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,28 +34938,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O5" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>373.0365088578695</v>
+        <v>379.914843031319</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820406</v>
@@ -35032,13 +35032,13 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
@@ -35102,7 +35102,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860245</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>640.5848321000387</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>295.1262901348405</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35342,7 +35342,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35351,7 +35351,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>302.474889585677</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>483.7764056113316</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="P15" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35898,7 +35898,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
@@ -35971,16 +35971,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N18" t="n">
-        <v>462.2005856280619</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36208,22 +36208,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>388.4444965287609</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,22 +36442,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>140.6875824748321</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36685,16 +36685,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>8.181160134949776</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36919,19 +36919,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>349.0014880820875</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37399,16 +37399,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>45.87687150790109</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>485.5616452121063</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>219.1556674334648</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38101,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>101.8925903961643</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1674397.429872842</v>
+        <v>1676157.960175627</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>197.6995498140976</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>306.7021075930159</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -834,10 +834,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>171.1971464172144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>43.30112502764958</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>286.4836550127267</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>263.6022328424115</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1059,22 +1059,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>64.57009008111739</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>239.3135884893129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1135,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>121.7917061766675</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>355.3191588012451</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1308,7 +1308,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>9.122075265478212</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>171.1971464172151</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,10 +1584,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>160.6789846282037</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>227.5037279512935</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1660,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>102.1557845699813</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>90.14863908058081</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>24.83266606353065</v>
+        <v>148.0280580960833</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2772,10 +2772,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>247.6310136071098</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2961,13 +2961,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3009,10 +3009,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>206.485192343033</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3429,10 +3429,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>35.41770597126702</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>41.33703994143007</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3900,22 +3900,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>41.74133133758728</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>728.3028554854573</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="C2" t="n">
-        <v>728.3028554854573</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="D2" t="n">
-        <v>728.3028554854573</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="E2" t="n">
-        <v>728.3028554854573</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="F2" t="n">
-        <v>317.3169506958497</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G2" t="n">
         <v>117.6204357321147</v>
@@ -4327,19 +4327,19 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816085</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2231.276441056585</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1878.507785786471</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>1505.042027525391</v>
+        <v>1334.450422773245</v>
       </c>
       <c r="Y2" t="n">
-        <v>1114.902695549579</v>
+        <v>944.3110907974333</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182521</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>168.0008189145204</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>614.5430248380231</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>909.2465818694948</v>
+        <v>932.4978103100998</v>
       </c>
       <c r="M3" t="n">
-        <v>1272.508600828715</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.79372942566</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601822</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1758.982323005929</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C4" t="n">
-        <v>1590.046140078022</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D4" t="n">
-        <v>1439.929500665687</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E4" t="n">
-        <v>1292.016407083293</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F4" t="n">
-        <v>1145.126459585383</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G4" t="n">
-        <v>977.1399948936618</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>977.1399948936618</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936618</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.609167878781</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294982</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2562.339328400155</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>2562.339328400155</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T4" t="n">
-        <v>2562.339328400155</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="U4" t="n">
-        <v>2562.339328400155</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="V4" t="n">
-        <v>2562.339328400155</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="W4" t="n">
-        <v>2389.412917877717</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="X4" t="n">
-        <v>2161.423366979699</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="Y4" t="n">
-        <v>1940.630787836169</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>740.1619192519192</v>
+        <v>1126.76175931604</v>
       </c>
       <c r="C5" t="n">
-        <v>740.1619192519192</v>
+        <v>1126.76175931604</v>
       </c>
       <c r="D5" t="n">
-        <v>740.1619192519192</v>
+        <v>1126.76175931604</v>
       </c>
       <c r="E5" t="n">
-        <v>740.1619192519192</v>
+        <v>1126.76175931604</v>
       </c>
       <c r="F5" t="n">
-        <v>329.1760144623117</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>317.5116682270046</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816075</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872916</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190806</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V5" t="n">
-        <v>1852.996172847235</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W5" t="n">
-        <v>1500.227517577121</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="X5" t="n">
-        <v>1126.761759316041</v>
+        <v>1126.76175931604</v>
       </c>
       <c r="Y5" t="n">
-        <v>1126.761759316041</v>
+        <v>1126.76175931604</v>
       </c>
     </row>
     <row r="6">
@@ -4643,31 +4643,31 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380219</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694938</v>
+        <v>1092.885047004312</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.793729425659</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>940.7932119894607</v>
+        <v>220.18296949591</v>
       </c>
       <c r="C7" t="n">
-        <v>771.8570290615538</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D7" t="n">
-        <v>621.7403896492181</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E7" t="n">
-        <v>473.8272960668249</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386097</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4746,31 +4746,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1571.223806861248</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1571.223806861248</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1571.223806861248</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1571.223806861248</v>
+        <v>1394.715222610545</v>
       </c>
       <c r="V7" t="n">
-        <v>1571.223806861248</v>
+        <v>1140.030734404658</v>
       </c>
       <c r="W7" t="n">
-        <v>1571.223806861248</v>
+        <v>850.6135643676972</v>
       </c>
       <c r="X7" t="n">
-        <v>1343.23425596323</v>
+        <v>622.6240134696799</v>
       </c>
       <c r="Y7" t="n">
-        <v>1122.4416768197</v>
+        <v>401.8314343261497</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1228.647807131574</v>
+        <v>1588.383781964454</v>
       </c>
       <c r="C8" t="n">
-        <v>859.685290191162</v>
+        <v>1588.383781964454</v>
       </c>
       <c r="D8" t="n">
-        <v>859.685290191162</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8970375929177</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872914</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U8" t="n">
-        <v>2308.758267664335</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V8" t="n">
-        <v>1977.695380320764</v>
+        <v>2314.618195495648</v>
       </c>
       <c r="W8" t="n">
-        <v>1977.695380320764</v>
+        <v>1961.849540225533</v>
       </c>
       <c r="X8" t="n">
-        <v>1618.787139107385</v>
+        <v>1588.383781964454</v>
       </c>
       <c r="Y8" t="n">
-        <v>1228.647807131574</v>
+        <v>1588.383781964454</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380226</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>842.3033321201476</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C10" t="n">
-        <v>673.3671491922407</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D10" t="n">
-        <v>523.250509779905</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E10" t="n">
-        <v>375.3374161975119</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F10" t="n">
-        <v>228.4474686996015</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>60.46100400788009</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4986,28 +4986,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1244.744376093917</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1244.744376093917</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>1244.744376093917</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X10" t="n">
-        <v>1244.744376093917</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y10" t="n">
-        <v>1023.951796950387</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="11">
@@ -5038,22 +5038,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5117,22 +5117,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239595</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L12" t="n">
-        <v>924.8344286397181</v>
+        <v>923.067041434951</v>
       </c>
       <c r="M12" t="n">
-        <v>1522.21291626627</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2148.043492616109</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,7 +5175,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>707.672526468518</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C13" t="n">
         <v>538.7363435406111</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1627.520291377266</v>
+        <v>1458.584108449359</v>
       </c>
       <c r="W13" t="n">
-        <v>1338.103121340305</v>
+        <v>1169.166938412398</v>
       </c>
       <c r="X13" t="n">
-        <v>1110.113570442288</v>
+        <v>941.1773875143809</v>
       </c>
       <c r="Y13" t="n">
-        <v>889.3209912987577</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5275,13 +5275,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5308,22 +5308,22 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5357,19 +5357,19 @@
         <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2149.810879820877</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797186</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5503,19 +5503,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5603,10 +5603,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>1022.530292372932</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>853.5941094450255</v>
       </c>
       <c r="D19" t="n">
-        <v>241.729756630365</v>
+        <v>703.4774700326898</v>
       </c>
       <c r="E19" t="n">
-        <v>93.81666304797187</v>
+        <v>555.5643764502967</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>408.6744289523863</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5703,22 +5703,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1942.37805728168</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1424.971336346702</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1204.178757203172</v>
       </c>
     </row>
     <row r="20">
@@ -5734,22 +5734,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5940,22 +5940,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5977,16 +5977,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.192580311172</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C25" t="n">
-        <v>580.8993044876688</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="26">
@@ -6229,16 +6229,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6454,19 +6454,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>849.3843576263199</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C31" t="n">
-        <v>680.448174698413</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D31" t="n">
-        <v>530.3315352860773</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E31" t="n">
-        <v>382.4184417036842</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6657,16 +6657,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,10 +6688,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2411.187623003223</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="38">
@@ -7165,19 +7165,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>695.5020655703114</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>526.5658826424045</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7408,22 +7408,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2404.800122633203</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2221.945288288107</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2002.343823311048</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1713.268596655246</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1458.584108449359</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1169.166938412398</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>941.1773875143809</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>54.95314511566572</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621885</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8072,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>186.5911984019041</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,10 +8297,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878341</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>114.3555089013348</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154985</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878349</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>265.0304328515146</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>20.9377812015499</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,10 +23472,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>24.63391537253449</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>46.45968844823102</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>75.37549921168804</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,10 +23943,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>123.7828069546817</v>
+        <v>0.5874149221290565</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24660,10 +24660,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>38.89198472948121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24849,13 +24849,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>32.15184655856257</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24897,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>80.03780599355795</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,10 +25317,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>145.6085800303776</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>107.2784330767823</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>24.63391537253441</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>894570.6432741423</v>
+        <v>894570.6432741424</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>894570.6432741423</v>
+        <v>894570.6432741424</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>894570.6432741424</v>
+        <v>894570.6432741423</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>894570.6432741423</v>
+        <v>894570.6432741424</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>894570.6432741424</v>
+        <v>894570.6432741423</v>
       </c>
     </row>
     <row r="15">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>533677.1504117843</v>
+      </c>
+      <c r="C2" t="n">
         <v>533677.1504117842</v>
-      </c>
-      <c r="C2" t="n">
-        <v>533677.1504117843</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117842</v>
@@ -26328,10 +26328,10 @@
         <v>524645.289798504</v>
       </c>
       <c r="G2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.289798504</v>
       </c>
       <c r="H2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="I2" t="n">
         <v>524645.289798504</v>
@@ -26340,22 +26340,22 @@
         <v>524645.289798504</v>
       </c>
       <c r="K2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="L2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.2897985041</v>
       </c>
       <c r="M2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="N2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.289798504</v>
       </c>
       <c r="O2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="P2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>3.10570385408937e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289266</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26420,16 +26420,16 @@
         <v>133113.8635467443</v>
       </c>
       <c r="C4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="E4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719729</v>
       </c>
       <c r="G4" t="n">
         <v>7507.368461719667</v>
@@ -26456,7 +26456,7 @@
         <v>7507.368461719667</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.368461719634</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="P4" t="n">
         <v>7507.368461719667</v>
@@ -26472,7 +26472,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-807126.2691507243</v>
+        <v>-807126.2691507244</v>
       </c>
       <c r="C6" t="n">
-        <v>307625.5144251949</v>
+        <v>307625.5144251952</v>
       </c>
       <c r="D6" t="n">
-        <v>307625.5144251954</v>
+        <v>307625.5144251951</v>
       </c>
       <c r="E6" t="n">
-        <v>-91817.42936602562</v>
+        <v>-91504.78803710444</v>
       </c>
       <c r="F6" t="n">
-        <v>415668.01225852</v>
+        <v>415980.6535874413</v>
       </c>
       <c r="G6" t="n">
-        <v>415668.0122585203</v>
+        <v>415980.6535874415</v>
       </c>
       <c r="H6" t="n">
-        <v>415668.0122585202</v>
+        <v>415980.6535874414</v>
       </c>
       <c r="I6" t="n">
-        <v>415668.0122585202</v>
+        <v>415980.6535874415</v>
       </c>
       <c r="J6" t="n">
-        <v>248062.8344485377</v>
+        <v>248375.4757774589</v>
       </c>
       <c r="K6" t="n">
-        <v>415668.0122585202</v>
+        <v>415980.6535874414</v>
       </c>
       <c r="L6" t="n">
-        <v>415668.0122585201</v>
+        <v>415980.6535874416</v>
       </c>
       <c r="M6" t="n">
-        <v>283060.7185295936</v>
+        <v>283373.3598585148</v>
       </c>
       <c r="N6" t="n">
-        <v>415668.0122585199</v>
+        <v>415980.6535874415</v>
       </c>
       <c r="O6" t="n">
-        <v>415668.0122585201</v>
+        <v>415980.6535874415</v>
       </c>
       <c r="P6" t="n">
-        <v>415668.0122585201</v>
+        <v>415980.6535874415</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175392</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27393,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>213.8481529588564</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>63.02899308545318</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
@@ -27599,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>115.3258519193766</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>182.4085303613876</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>120.3923907289848</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>37.41631971999391</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27779,22 +27779,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>36.98748233845622</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
@@ -27830,13 +27830,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>46.91356563188768</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,25 +27855,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>205.9605522934674</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>14.41194187722391</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28028,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.1294338896506</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -28067,16 +28067,16 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>115.3258519193759</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28338,7 +28338,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,34 +31278,34 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
         <v>405.5015080147052</v>
@@ -31314,13 +31314,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,34 +31357,34 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31393,10 +31393,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
         <v>0.1321789941675764</v>
@@ -31442,19 +31442,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067959</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
@@ -31852,10 +31852,10 @@
         <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>615.1181176946649</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>551.7051287319857</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -32077,7 +32077,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>549.9198891312103</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32323,13 +32323,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32706,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>117.9333660065831</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>522.0158803980272</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,28 +34938,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,28 +35017,28 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>379.914843031319</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378503</v>
+        <v>412.0358695391849</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313197</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
@@ -35269,10 +35269,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>514.7099619750469</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -35500,10 +35500,10 @@
         <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>483.7764056113316</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>409.1088842875412</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>407.3236446867659</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35898,7 +35898,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
@@ -35971,13 +35971,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36354,10 +36354,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
